--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value678.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value678.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.556127883989095</v>
+        <v>1.489914298057556</v>
       </c>
       <c r="B1">
-        <v>1.90949643878602</v>
+        <v>1.781668901443481</v>
       </c>
       <c r="C1">
-        <v>2.661263705612583</v>
+        <v>1.89094865322113</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.184774160385132</v>
       </c>
       <c r="E1">
-        <v>0.6343158625649482</v>
+        <v>2.750805139541626</v>
       </c>
     </row>
   </sheetData>
